--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB49F71-BB34-4B5B-BD7E-4B73F001A382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB83126-5594-48CA-A9D3-85871C57B210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB83126-5594-48CA-A9D3-85871C57B210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1AAA33-A7CF-4F68-A9FF-8693A02A23B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1AAA33-A7CF-4F68-A9FF-8693A02A23B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E899DA7E-757B-49A2-AE07-123D59DBD9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="4830" yWindow="4905" windowWidth="28800" windowHeight="15435" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E899DA7E-757B-49A2-AE07-123D59DBD9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9901EB1-19FF-4EB2-9D18-F14A25B81191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="4905" windowWidth="28800" windowHeight="15435" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRotationSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEE82F-9CE1-43EA-80A5-B7D491C6FD38}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,18 +521,19 @@
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -539,34 +544,37 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -580,34 +588,37 @@
         <v>2.5</v>
       </c>
       <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
         <v>150</v>
       </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
       <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -621,34 +632,37 @@
         <v>2.5</v>
       </c>
       <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>150</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.5</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1.5</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>150</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -662,30 +676,33 @@
         <v>3.5</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>150</v>
       </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
       <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1000</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9901EB1-19FF-4EB2-9D18-F14A25B81191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473EE582-6CB1-4C72-A819-BA95AE7A413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
         <v>250</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -641,7 +641,7 @@
         <v>250</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>1.5</v>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I4">
         <v>7.5</v>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473EE582-6CB1-4C72-A819-BA95AE7A413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87873AE9-54D2-4AB3-92AB-4EC075323023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87873AE9-54D2-4AB3-92AB-4EC075323023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48934B79-9BF2-46CF-969E-B350F8848837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,34 @@
   </si>
   <si>
     <t>AttackRotationSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClawsAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceratoferox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleAnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleClawsAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleLookAround</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEE82F-9CE1-43EA-80A5-B7D491C6FD38}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,9 +559,10 @@
     <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -573,8 +602,11 @@
       <c r="N1" t="s">
         <v>10</v>
       </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -617,8 +649,11 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -661,13 +696,16 @@
       <c r="N3" t="s">
         <v>16</v>
       </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -704,6 +742,103 @@
       </c>
       <c r="N4" t="s">
         <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4.5</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>250</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48934B79-9BF2-46CF-969E-B350F8848837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC9B4D0-D494-4CA9-9DA2-DB7FBC55A9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AdvancedCombatDroid_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PheroLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,19 +136,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IdleAnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DoubleClawsAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IdleLookAround</t>
+    <t>Anglerox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClawsAttack2HitCombo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvancedCombatDroid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiningMech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct2HitComboAttackForward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deactivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aranobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHitLeft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEE82F-9CE1-43EA-80A5-B7D491C6FD38}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,18 +576,18 @@
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -579,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -591,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -602,11 +622,8 @@
       <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -649,154 +666,142 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G3">
         <v>250</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="H4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G5">
         <v>250</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -829,7 +834,7 @@
         <v>300</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -837,11 +842,143 @@
       <c r="N6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>7.5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>250</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>30</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5.5</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1500</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
+    <sortCondition ref="B2:B9"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC9B4D0-D494-4CA9-9DA2-DB7FBC55A9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13682CB2-A834-4D0A-B42F-8361057003A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="5535" yWindow="11370" windowWidth="28800" windowHeight="15435" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,38 @@
   </si>
   <si>
     <t>GetHitLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gobbler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RamAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpClawsAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightBipedMech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleActive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgeForward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEE82F-9CE1-43EA-80A5-B7D491C6FD38}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -957,7 +989,7 @@
         <v>300</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -972,6 +1004,138 @@
         <v>32</v>
       </c>
       <c r="N9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>250</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>4.5</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>250</v>
+      </c>
+      <c r="G11">
+        <v>250</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>300</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>2.5</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>250</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>600</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13682CB2-A834-4D0A-B42F-8361057003A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45639C27-C798-42C7-ADBD-D7C4732AF7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="11370" windowWidth="28800" windowHeight="15435" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackAnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetHitAnimName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2HandsSmashAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PheroLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +197,34 @@
   </si>
   <si>
     <t>DodgeForward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftHandAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack2AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftFootStompAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roar1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack3AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack1AnimName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEE82F-9CE1-43EA-80A5-B7D491C6FD38}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,17 +629,17 @@
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" customWidth="1"/>
     <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -631,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -643,19 +663,25 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -687,21 +713,27 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -731,21 +763,27 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -778,18 +816,24 @@
         <v>200</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -822,18 +866,24 @@
         <v>150</v>
       </c>
       <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -863,19 +913,25 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -886,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -901,7 +957,7 @@
         <v>200</v>
       </c>
       <c r="I7">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -910,18 +966,24 @@
         <v>1000</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -954,83 +1016,95 @@
         <v>200</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G9">
+        <v>250</v>
+      </c>
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="H9">
-        <v>300</v>
-      </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G10">
         <v>250</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1039,65 +1113,77 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1130,18 +1216,24 @@
         <v>600</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
-    <sortCondition ref="B2:B9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P12">
+    <sortCondition ref="B2:B12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13682CB2-A834-4D0A-B42F-8361057003A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF3FF4E-FEE6-4E99-85C0-433E1F685AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="11370" windowWidth="28800" windowHeight="15435" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="39180" yWindow="-3165" windowWidth="21600" windowHeight="11385" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -901,7 +901,7 @@
         <v>200</v>
       </c>
       <c r="I7">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="J7">
         <v>0</v>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45639C27-C798-42C7-ADBD-D7C4732AF7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E68252-0861-4C64-85EB-0E3D9E779FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="38415" yWindow="-3900" windowWidth="30210" windowHeight="17340" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Direct2HitComboAttackForward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Blocked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +221,18 @@
   </si>
   <si>
     <t>Attack1AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UppercutDiggerAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UppercutDrillAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmashAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +620,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,13 +674,13 @@
         <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
@@ -719,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -769,10 +777,10 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
         <v>16</v>
@@ -783,7 +791,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -819,13 +827,13 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
         <v>12</v>
@@ -869,10 +877,10 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -919,10 +927,10 @@
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -966,16 +974,16 @@
         <v>1000</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
         <v>12</v>
@@ -1019,10 +1027,10 @@
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
         <v>16</v>
@@ -1033,7 +1041,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1066,24 +1074,24 @@
         <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O9" t="s">
         <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1116,13 +1124,13 @@
         <v>300</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
         <v>16</v>
@@ -1151,7 +1159,7 @@
         <v>150</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>300</v>
@@ -1166,24 +1174,24 @@
         <v>1500</v>
       </c>
       <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s">
         <v>29</v>
       </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>30</v>
-      </c>
-      <c r="P11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1216,19 +1224,19 @@
         <v>600</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF3FF4E-FEE6-4E99-85C0-433E1F685AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45639C27-C798-42C7-ADBD-D7C4732AF7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="-3165" windowWidth="21600" windowHeight="11385" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackAnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetHitAnimName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2HandsSmashAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PheroLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +197,34 @@
   </si>
   <si>
     <t>DodgeForward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftHandAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack2AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftFootStompAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roar1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack3AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack1AnimName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEE82F-9CE1-43EA-80A5-B7D491C6FD38}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,17 +629,17 @@
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" customWidth="1"/>
     <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -631,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -643,19 +663,25 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -687,21 +713,27 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -731,21 +763,27 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -778,18 +816,24 @@
         <v>200</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -822,18 +866,24 @@
         <v>150</v>
       </c>
       <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -863,19 +913,25 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -886,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -901,7 +957,7 @@
         <v>200</v>
       </c>
       <c r="I7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -910,18 +966,24 @@
         <v>1000</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -954,83 +1016,95 @@
         <v>200</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G9">
+        <v>250</v>
+      </c>
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="H9">
-        <v>300</v>
-      </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G10">
         <v>250</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1039,65 +1113,77 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1130,18 +1216,24 @@
         <v>600</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
-    <sortCondition ref="B2:B9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P12">
+    <sortCondition ref="B2:B12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alseh\Desktop\X-MACHINA\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45639C27-C798-42C7-ADBD-D7C4732AF7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6145D5-A5DA-4D02-ACEF-75944C660DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Direct2HitComboAttackForward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Blocked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +221,18 @@
   </si>
   <si>
     <t>Attack1AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UppercutDiggerAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UppercutDrillAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmashAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +620,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,13 +674,13 @@
         <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
@@ -719,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -769,10 +777,10 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
         <v>16</v>
@@ -783,7 +791,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -819,13 +827,13 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
         <v>12</v>
@@ -869,10 +877,10 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -919,10 +927,10 @@
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -966,16 +974,16 @@
         <v>1000</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
         <v>12</v>
@@ -1019,10 +1027,10 @@
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
         <v>16</v>
@@ -1033,7 +1041,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1066,24 +1074,24 @@
         <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O9" t="s">
         <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1116,13 +1124,13 @@
         <v>300</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
         <v>16</v>
@@ -1166,24 +1174,24 @@
         <v>1500</v>
       </c>
       <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s">
         <v>29</v>
       </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>30</v>
-      </c>
-      <c r="P11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1216,19 +1224,19 @@
         <v>600</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alseh\Desktop\X-MACHINA\Client\X-MACHINA\Import\XL\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6145D5-A5DA-4D02-ACEF-75944C660DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A823B15D-6DF3-456E-9F89-1C9232609141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="5475" yWindow="13620" windowWidth="30210" windowHeight="17340" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A823B15D-6DF3-456E-9F89-1C9232609141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154EF463-E089-43E7-B049-6CEF4ED73120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="13620" windowWidth="30210" windowHeight="17340" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154EF463-E089-43E7-B049-6CEF4ED73120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813E93C-C07F-4E73-A727-6A815DC7A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G2">
         <v>250</v>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G3">
         <v>250</v>
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G4">
         <v>250</v>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G5">
         <v>250</v>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G6">
         <v>250</v>
@@ -956,7 +956,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1006,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G8">
         <v>250</v>
@@ -1056,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G9">
         <v>250</v>
@@ -1106,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G10">
         <v>250</v>
@@ -1156,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G11">
         <v>100</v>
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G12">
         <v>250</v>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813E93C-C07F-4E73-A727-6A815DC7A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C3026-78BB-431F-937F-0B83A56D6732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="12480" yWindow="3390" windowWidth="22665" windowHeight="12885" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEE82F-9CE1-43EA-80A5-B7D491C6FD38}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -933,7 +933,7 @@
         <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
         <v>12</v>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C3026-78BB-431F-937F-0B83A56D6732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD75DD-DE8C-434F-A1CB-D7EDB446F900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="3390" windowWidth="22665" windowHeight="12885" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Ursacetus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,34 @@
   </si>
   <si>
     <t>SmashAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deus_Phase_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deus_Phase_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CEE82F-9CE1-43EA-80A5-B7D491C6FD38}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1239,6 +1267,106 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>250</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>250</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P12">
     <sortCondition ref="B2:B12"/>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD75DD-DE8C-434F-A1CB-D7EDB446F900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62440ACE-6990-41D0-9FA0-E7BA7F258D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -1293,7 +1293,7 @@
         <v>300</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J13">
         <v>0</v>

--- a/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Enemy/EnemyStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62440ACE-6990-41D0-9FA0-E7BA7F258D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAA13D0-E052-4038-90C2-C950F6831E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
@@ -188,14 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IdleActive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DodgeForward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LeftHandAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,6 +253,14 @@
   </si>
   <si>
     <t>Dead_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_Hit_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -702,13 +702,13 @@
         <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
@@ -755,10 +755,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -805,10 +805,10 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
         <v>16</v>
@@ -855,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
         <v>32</v>
@@ -905,10 +905,10 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -955,13 +955,13 @@
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
         <v>12</v>
@@ -1002,16 +1002,16 @@
         <v>1000</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
         <v>12</v>
@@ -1055,10 +1055,10 @@
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
         <v>16</v>
@@ -1105,10 +1105,10 @@
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
         <v>16</v>
@@ -1155,10 +1155,10 @@
         <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O10" t="s">
         <v>16</v>
@@ -1202,13 +1202,13 @@
         <v>1500</v>
       </c>
       <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
         <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" t="s">
-        <v>50</v>
       </c>
       <c r="O11" t="s">
         <v>29</v>
@@ -1228,22 +1228,22 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>20</v>
       </c>
       <c r="F12">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>250</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1252,16 +1252,16 @@
         <v>600</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
         <v>30</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1281,19 +1281,19 @@
         <v>3.5</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>300</v>
       </c>
       <c r="I13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1302,24 +1302,24 @@
         <v>3000</v>
       </c>
       <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
         <v>53</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>54</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>55</v>
-      </c>
-      <c r="O13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1328,22 +1328,22 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G14">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>300</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1352,19 +1352,19 @@
         <v>3000</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" t="s">
         <v>55</v>
-      </c>
-      <c r="O14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
